--- a/product_backlog.xlsx
+++ b/product_backlog.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gehweg-Parcours'!$A$1:$M$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -715,7 +715,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,9 @@
       <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
@@ -860,7 +862,9 @@
       <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14">
+        <v>2</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
@@ -907,7 +911,9 @@
       <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
@@ -930,7 +936,9 @@
       <c r="D8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="14">
+        <v>8</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
@@ -953,7 +961,9 @@
       <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14">
+        <v>2</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
@@ -976,7 +986,9 @@
       <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14">
+        <v>8</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
@@ -1023,7 +1035,9 @@
       <c r="D12" s="13">
         <v>2</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
@@ -1046,7 +1060,9 @@
       <c r="D13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14">
+        <v>5</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
@@ -1069,7 +1085,9 @@
       <c r="D14" s="13">
         <v>2</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
@@ -1092,7 +1110,9 @@
       <c r="D15" s="13">
         <v>3</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14">
+        <v>2</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
@@ -1115,7 +1135,9 @@
       <c r="D16" s="13">
         <v>5</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14">
+        <v>5</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
@@ -1162,7 +1184,9 @@
       <c r="D18" s="13">
         <v>5</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
@@ -1185,7 +1209,9 @@
       <c r="D19" s="13">
         <v>5</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14">
+        <v>5</v>
+      </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
@@ -1232,7 +1258,9 @@
       <c r="D21" s="13">
         <v>4</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="14">
+        <v>8</v>
+      </c>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
@@ -1279,7 +1307,9 @@
       <c r="D23" s="13">
         <v>4</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>

--- a/product_backlog.xlsx
+++ b/product_backlog.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>Bearbeiter</t>
   </si>
@@ -217,6 +217,34 @@
   </si>
   <si>
     <t>Komplexität</t>
+  </si>
+  <si>
+    <t>Base structure of the project and the rendering of the game field. Store size in variables so it can be changed later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tito-Markovitsch Senpai
+</t>
+  </si>
+  <si>
+    <t>Randomly place hundehaufen in the field.</t>
+  </si>
+  <si>
+    <t>furry senpai</t>
+  </si>
+  <si>
+    <t>Möcke chan</t>
+  </si>
+  <si>
+    <t>add flagging to field item using a enum containig the flagged, found, bomb</t>
+  </si>
+  <si>
+    <t>Add handlig to handle game over</t>
+  </si>
+  <si>
+    <t>add unraveling HUNDEHAUFEN. If step -&gt; Fuck Else -&gt; Wohooo</t>
+  </si>
+  <si>
+    <t>Hundehaufen in close proximity hint algorithm</t>
   </si>
 </sst>
 </file>
@@ -714,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,9 +868,15 @@
       <c r="E4" s="14">
         <v>2</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -865,9 +899,15 @@
       <c r="E5" s="14">
         <v>2</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -914,120 +954,144 @@
       <c r="E7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
         <v>2</v>
       </c>
-      <c r="E8" s="14">
-        <v>8</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="14">
-        <v>2</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <f>MIN(D11:D15)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13">
-        <v>3</v>
-      </c>
-      <c r="E10" s="14">
-        <v>8</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6">
-        <f>MIN(D12:D16)</f>
+      <c r="D11" s="13">
         <v>2</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>11</v>
@@ -1036,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
@@ -1047,12 +1111,12 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>11</v>
@@ -1061,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
@@ -1074,19 +1138,19 @@
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
@@ -1122,95 +1186,94 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="12" t="s">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6">
+        <f>MIN(D17)</f>
+        <v>4</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13">
-        <v>5</v>
-      </c>
-      <c r="E16" s="14">
-        <v>5</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="13">
+        <v>4</v>
+      </c>
+      <c r="E17" s="14">
+        <v>8</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="6">
-        <f>MIN(D18:D19)</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="13">
-        <v>5</v>
-      </c>
-      <c r="E18" s="14">
-        <v>5</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="D18" s="6">
+        <f>MIN(D19)</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
@@ -1221,94 +1284,95 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="13">
+        <v>5</v>
+      </c>
+      <c r="E20" s="14">
+        <v>5</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="6">
-        <f>MIN(D21)</f>
-        <v>4</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="6">
+        <f>MIN(D22:D23)</f>
+        <v>5</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="13">
-        <v>4</v>
-      </c>
-      <c r="E21" s="14">
-        <v>8</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6">
-        <f>MIN(D23)</f>
-        <v>4</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="D22" s="13">
+        <v>5</v>
+      </c>
+      <c r="E22" s="14">
+        <v>5</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
@@ -1326,7 +1390,7 @@
   </protectedRanges>
   <autoFilter ref="A1:M23">
     <sortState ref="A2:M23">
-      <sortCondition ref="A1:A23"/>
+      <sortCondition ref="D1:D23"/>
     </sortState>
   </autoFilter>
   <sortState ref="A3:M23">
